--- a/Code/Results/Cases/Case_8_9/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_9/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.522391451786063</v>
+        <v>2.438518248950231</v>
       </c>
       <c r="C2">
-        <v>0.3897309990659608</v>
+        <v>0.4265350981895324</v>
       </c>
       <c r="D2">
-        <v>0.06647903564438451</v>
+        <v>0.07276522104260152</v>
       </c>
       <c r="E2">
-        <v>0.05068604144492639</v>
+        <v>0.05266666047181268</v>
       </c>
       <c r="F2">
-        <v>0.8443675172972078</v>
+        <v>0.7738558807567628</v>
       </c>
       <c r="G2">
-        <v>0.000811911125404296</v>
+        <v>0.005665600678742388</v>
       </c>
       <c r="H2">
-        <v>0.001976178245033267</v>
+        <v>0.0009665717972503485</v>
       </c>
       <c r="I2">
-        <v>0.001883745446593199</v>
+        <v>0.0009455199505445933</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4165052010602928</v>
+        <v>0.3637252754548612</v>
       </c>
       <c r="L2">
-        <v>0.06341946967735712</v>
+        <v>0.1796717527771072</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1002193728085956</v>
       </c>
       <c r="N2">
-        <v>0.3145072236394242</v>
+        <v>0.06393720119126556</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9067115580220175</v>
+        <v>0.331903506967933</v>
       </c>
       <c r="Q2">
-        <v>2.167926601304572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8972019653725525</v>
+      </c>
+      <c r="S2">
+        <v>1.942535944999122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.202372241691933</v>
+        <v>2.133081703982555</v>
       </c>
       <c r="C3">
-        <v>0.3451897635263776</v>
+        <v>0.3761801601448269</v>
       </c>
       <c r="D3">
-        <v>0.06144946663572171</v>
+        <v>0.06800660576642059</v>
       </c>
       <c r="E3">
-        <v>0.04844977924628147</v>
+        <v>0.0510037287178795</v>
       </c>
       <c r="F3">
-        <v>0.803920155852353</v>
+        <v>0.7359360084943063</v>
       </c>
       <c r="G3">
-        <v>0.0008150715295754169</v>
+        <v>0.008037267077840138</v>
       </c>
       <c r="H3">
-        <v>0.003369777950140374</v>
+        <v>0.001844888298885516</v>
       </c>
       <c r="I3">
-        <v>0.003020024051183512</v>
+        <v>0.001465931406645193</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4124774827002398</v>
+        <v>0.3609220577130685</v>
       </c>
       <c r="L3">
-        <v>0.06111546945324431</v>
+        <v>0.1831941907979378</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09595025817666603</v>
       </c>
       <c r="N3">
-        <v>0.279837277991291</v>
+        <v>0.06219804820435382</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9157310109599877</v>
+        <v>0.2952476695310793</v>
       </c>
       <c r="Q3">
-        <v>2.071672338224346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8964540919475112</v>
+      </c>
+      <c r="S3">
+        <v>1.85159124791133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.005218004706535</v>
+        <v>1.944464072773656</v>
       </c>
       <c r="C4">
-        <v>0.3179531682784784</v>
+        <v>0.3454579541355258</v>
       </c>
       <c r="D4">
-        <v>0.05838096147341787</v>
+        <v>0.06512365651294516</v>
       </c>
       <c r="E4">
-        <v>0.04706111458508211</v>
+        <v>0.04997003158926727</v>
       </c>
       <c r="F4">
-        <v>0.7796508080801345</v>
+        <v>0.7129283531775386</v>
       </c>
       <c r="G4">
-        <v>0.0008170843221129278</v>
+        <v>0.009761836583993488</v>
       </c>
       <c r="H4">
-        <v>0.004449951258687301</v>
+        <v>0.002551615479447156</v>
       </c>
       <c r="I4">
-        <v>0.003947801402384599</v>
+        <v>0.001950809820709054</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4102843765160777</v>
+        <v>0.3593181867723274</v>
       </c>
       <c r="L4">
-        <v>0.05966307058324993</v>
+        <v>0.1853818977696591</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09390066461838487</v>
       </c>
       <c r="N4">
-        <v>0.2586173240946721</v>
+        <v>0.06109348684774396</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9219803667255064</v>
+        <v>0.2728354873558771</v>
       </c>
       <c r="Q4">
-        <v>2.014227848805206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8967235209710651</v>
+      </c>
+      <c r="S4">
+        <v>1.796427698554311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.923588392816526</v>
+        <v>1.86622522444091</v>
       </c>
       <c r="C5">
-        <v>0.307305458986761</v>
+        <v>0.3334349557428027</v>
       </c>
       <c r="D5">
-        <v>0.05715585817423374</v>
+        <v>0.06398038117725946</v>
       </c>
       <c r="E5">
-        <v>0.04647600929999918</v>
+        <v>0.04953119564567121</v>
       </c>
       <c r="F5">
-        <v>0.7693642545869963</v>
+        <v>0.7030971234051862</v>
       </c>
       <c r="G5">
-        <v>0.000817928020529258</v>
+        <v>0.01053435375459344</v>
       </c>
       <c r="H5">
-        <v>0.004947174750917271</v>
+        <v>0.002882005773773066</v>
       </c>
       <c r="I5">
-        <v>0.00445823956299618</v>
+        <v>0.002274810173961583</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4091015145377384</v>
+        <v>0.3583564266348773</v>
       </c>
       <c r="L5">
-        <v>0.05903880592175437</v>
+        <v>0.1861143698322785</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09311992802202518</v>
       </c>
       <c r="N5">
-        <v>0.2501391859017588</v>
+        <v>0.06061372743363957</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9249944367168652</v>
+        <v>0.2638820860788087</v>
       </c>
       <c r="Q5">
-        <v>1.989609171165796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.897339539032906</v>
+      </c>
+      <c r="S5">
+        <v>1.772544359359756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.908657057576988</v>
+        <v>1.851866450195502</v>
       </c>
       <c r="C6">
-        <v>0.3060631050698532</v>
+        <v>0.3319942621889709</v>
       </c>
       <c r="D6">
-        <v>0.05697812203639785</v>
+        <v>0.06381811881909272</v>
       </c>
       <c r="E6">
-        <v>0.04636023130549827</v>
+        <v>0.04944068123623779</v>
       </c>
       <c r="F6">
-        <v>0.7670139145905708</v>
+        <v>0.7008327715759748</v>
       </c>
       <c r="G6">
-        <v>0.0008180754238588247</v>
+        <v>0.01067253242510352</v>
       </c>
       <c r="H6">
-        <v>0.005036572908147685</v>
+        <v>0.002941768979067505</v>
       </c>
       <c r="I6">
-        <v>0.00464766518709947</v>
+        <v>0.002445630150980982</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4084731580096133</v>
+        <v>0.357788045641886</v>
       </c>
       <c r="L6">
-        <v>0.05890708955656798</v>
+        <v>0.1860351711631019</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09289048758294349</v>
       </c>
       <c r="N6">
-        <v>0.2489214342454176</v>
+        <v>0.06050893441357541</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9258663686299258</v>
+        <v>0.2625900600411057</v>
       </c>
       <c r="Q6">
-        <v>1.983582378414724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8978553998365371</v>
+      </c>
+      <c r="S6">
+        <v>1.766680103305504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.00037327180803</v>
+        <v>1.935180454505087</v>
       </c>
       <c r="C7">
-        <v>0.3192454137855805</v>
+        <v>0.344873217239126</v>
       </c>
       <c r="D7">
-        <v>0.05843397284169072</v>
+        <v>0.06557548745956154</v>
       </c>
       <c r="E7">
-        <v>0.04700322660464984</v>
+        <v>0.04998783663656603</v>
       </c>
       <c r="F7">
-        <v>0.7777352533597011</v>
+        <v>0.707826872688976</v>
       </c>
       <c r="G7">
-        <v>0.0008171122459067901</v>
+        <v>0.01011914417713933</v>
       </c>
       <c r="H7">
-        <v>0.004465543534688865</v>
+        <v>0.002572805696120839</v>
       </c>
       <c r="I7">
-        <v>0.004214992215133329</v>
+        <v>0.002259077162328538</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4090781225598832</v>
+        <v>0.3568296695022219</v>
       </c>
       <c r="L7">
-        <v>0.05958001885003217</v>
+        <v>0.1842057502232635</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09320740514642267</v>
       </c>
       <c r="N7">
-        <v>0.2590207179088679</v>
+        <v>0.06099368794243887</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9230213131762426</v>
+        <v>0.2729095798559342</v>
       </c>
       <c r="Q7">
-        <v>2.008533648755531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8992386546431703</v>
+      </c>
+      <c r="S7">
+        <v>1.780296238892873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.407174418634156</v>
+        <v>2.313301980234428</v>
       </c>
       <c r="C8">
-        <v>0.3762661867833117</v>
+        <v>0.404630450694043</v>
       </c>
       <c r="D8">
-        <v>0.06483314009918217</v>
+        <v>0.07253785192003193</v>
       </c>
       <c r="E8">
-        <v>0.04985241391818818</v>
+        <v>0.05227392382101215</v>
       </c>
       <c r="F8">
-        <v>0.8279482386343631</v>
+        <v>0.7477440005837011</v>
       </c>
       <c r="G8">
-        <v>0.0008130067161353277</v>
+        <v>0.008217974698632169</v>
       </c>
       <c r="H8">
-        <v>0.002417024628043385</v>
+        <v>0.001262401121818635</v>
       </c>
       <c r="I8">
-        <v>0.002536979310719722</v>
+        <v>0.001463677602763447</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4134869169657982</v>
+        <v>0.3568394216567405</v>
       </c>
       <c r="L8">
-        <v>0.06253521595734313</v>
+        <v>0.1782774360134454</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09678186965929214</v>
       </c>
       <c r="N8">
-        <v>0.3032277227342774</v>
+        <v>0.06317492285647752</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9110612885173097</v>
+        <v>0.31882844297931</v>
       </c>
       <c r="Q8">
-        <v>2.127285127538443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.903285149223791</v>
+      </c>
+      <c r="S8">
+        <v>1.869171612609676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.206759152905818</v>
+        <v>3.069413849932459</v>
       </c>
       <c r="C9">
-        <v>0.4865828621022388</v>
+        <v>0.5277788677243507</v>
       </c>
       <c r="D9">
-        <v>0.0774301762698002</v>
+        <v>0.08493715811810887</v>
       </c>
       <c r="E9">
-        <v>0.05541770392909129</v>
+        <v>0.05648485722884367</v>
       </c>
       <c r="F9">
-        <v>0.9344292671430878</v>
+        <v>0.8432096246525234</v>
       </c>
       <c r="G9">
-        <v>0.0008054917442969855</v>
+        <v>0.004058467768702556</v>
       </c>
       <c r="H9">
-        <v>0.0002832708981463927</v>
+        <v>5.514042997267765E-05</v>
       </c>
       <c r="I9">
-        <v>0.0007967874241874284</v>
+        <v>0.0008081708840563806</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4266074486871361</v>
+        <v>0.3647354471559368</v>
       </c>
       <c r="L9">
-        <v>0.06818182683527052</v>
+        <v>0.170075495894924</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1103351017150409</v>
       </c>
       <c r="N9">
-        <v>0.3896284355616757</v>
+        <v>0.06738302254897377</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8915853325743655</v>
+        <v>0.4099733318722514</v>
       </c>
       <c r="Q9">
-        <v>2.383931726150735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9099871979659397</v>
+      </c>
+      <c r="S9">
+        <v>2.0969833388003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.773824334321262</v>
+        <v>3.576496132424552</v>
       </c>
       <c r="C10">
-        <v>0.5708893853694121</v>
+        <v>0.6095150966952758</v>
       </c>
       <c r="D10">
-        <v>0.08545788161233503</v>
+        <v>0.09523847644675953</v>
       </c>
       <c r="E10">
-        <v>0.05799783619980481</v>
+        <v>0.05856647163798989</v>
       </c>
       <c r="F10">
-        <v>1.004008937114108</v>
+        <v>0.8857047308710122</v>
       </c>
       <c r="G10">
-        <v>0.0008003995138611753</v>
+        <v>0.009951552177636103</v>
       </c>
       <c r="H10">
-        <v>0.0002064279048803463</v>
+        <v>0.0002943926919130035</v>
       </c>
       <c r="I10">
-        <v>0.0009864509559411871</v>
+        <v>0.001400315277324538</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4326194104780896</v>
+        <v>0.3595067382094257</v>
       </c>
       <c r="L10">
-        <v>0.07109474742376243</v>
+        <v>0.1600116291911249</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1184270089797401</v>
       </c>
       <c r="N10">
-        <v>0.442076743846215</v>
+        <v>0.06934257944387845</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8868053160570497</v>
+        <v>0.4634943127579021</v>
       </c>
       <c r="Q10">
-        <v>2.553133725847943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9349562357575536</v>
+      </c>
+      <c r="S10">
+        <v>2.182522252574245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.884629377380406</v>
+        <v>3.628620497436202</v>
       </c>
       <c r="C11">
-        <v>0.6258148421339058</v>
+        <v>0.638161026101983</v>
       </c>
       <c r="D11">
-        <v>0.07747470322590289</v>
+        <v>0.09142404254284031</v>
       </c>
       <c r="E11">
-        <v>0.0487744699322219</v>
+        <v>0.04993718248624468</v>
       </c>
       <c r="F11">
-        <v>0.9374047761879751</v>
+        <v>0.788412729088158</v>
       </c>
       <c r="G11">
-        <v>0.0007989325502765318</v>
+        <v>0.04376853673264947</v>
       </c>
       <c r="H11">
-        <v>0.0187800503822082</v>
+        <v>0.01884259384718945</v>
       </c>
       <c r="I11">
-        <v>0.00165381899742556</v>
+        <v>0.002169276939921083</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3944690164376077</v>
+        <v>0.313262304465205</v>
       </c>
       <c r="L11">
-        <v>0.06803933855375321</v>
+        <v>0.1405754362871754</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1042532719340734</v>
       </c>
       <c r="N11">
-        <v>0.3686896905785915</v>
+        <v>0.06758593482289665</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9356493094799845</v>
+        <v>0.3835590744176898</v>
       </c>
       <c r="Q11">
-        <v>2.393323768217414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.021590351534542</v>
+      </c>
+      <c r="S11">
+        <v>1.921379274911942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.862007492103771</v>
+        <v>3.586682884019069</v>
       </c>
       <c r="C12">
-        <v>0.6525345729225194</v>
+        <v>0.6498359319818405</v>
       </c>
       <c r="D12">
-        <v>0.06936171801194746</v>
+        <v>0.08449221583377664</v>
       </c>
       <c r="E12">
-        <v>0.0433942954021993</v>
+        <v>0.04453966222026828</v>
       </c>
       <c r="F12">
-        <v>0.8702474281527515</v>
+        <v>0.7142291710906221</v>
       </c>
       <c r="G12">
-        <v>0.0007986726310007262</v>
+        <v>0.06820386506369402</v>
       </c>
       <c r="H12">
-        <v>0.05743419031342256</v>
+        <v>0.05747653984249013</v>
       </c>
       <c r="I12">
-        <v>0.00167548718626076</v>
+        <v>0.002173594058551664</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3639456841978124</v>
+        <v>0.2836415668368524</v>
       </c>
       <c r="L12">
-        <v>0.07151022922040795</v>
+        <v>0.1295505316621384</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09344426126278194</v>
       </c>
       <c r="N12">
-        <v>0.3011870669560182</v>
+        <v>0.07220470418297786</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9811403727975829</v>
+        <v>0.3120938975537797</v>
       </c>
       <c r="Q12">
-        <v>2.232680572976591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.087521665636444</v>
+      </c>
+      <c r="S12">
+        <v>1.735379495055355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.729595779482622</v>
+        <v>3.475986494812673</v>
       </c>
       <c r="C13">
-        <v>0.6611019001881857</v>
+        <v>0.6569506781098937</v>
       </c>
       <c r="D13">
-        <v>0.06082954259134254</v>
+        <v>0.07423697428875897</v>
       </c>
       <c r="E13">
-        <v>0.04054833002860236</v>
+        <v>0.0414598207672876</v>
       </c>
       <c r="F13">
-        <v>0.7960502681439863</v>
+        <v>0.6555241701045631</v>
       </c>
       <c r="G13">
-        <v>0.0007993496349086999</v>
+        <v>0.06244261546363461</v>
       </c>
       <c r="H13">
-        <v>0.1131457653404482</v>
+        <v>0.1131647503685258</v>
       </c>
       <c r="I13">
-        <v>0.001541319410049091</v>
+        <v>0.002022473759277332</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3356196959097986</v>
+        <v>0.2643847802594301</v>
       </c>
       <c r="L13">
-        <v>0.07989962597435962</v>
+        <v>0.1233558855644787</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0849137232005539</v>
       </c>
       <c r="N13">
-        <v>0.2355254218709035</v>
+        <v>0.08178251953542315</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.027274189679702</v>
+        <v>0.2445008127160264</v>
       </c>
       <c r="Q13">
-        <v>2.053600261971354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.13294745233641</v>
+      </c>
+      <c r="S13">
+        <v>1.603334022957512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.586596444164002</v>
+        <v>3.365629578293067</v>
       </c>
       <c r="C14">
-        <v>0.6593384866483234</v>
+        <v>0.6602661071271143</v>
       </c>
       <c r="D14">
-        <v>0.05479833683078539</v>
+        <v>0.06600838541375253</v>
       </c>
       <c r="E14">
-        <v>0.04007495460469856</v>
+        <v>0.04092216684736005</v>
       </c>
       <c r="F14">
-        <v>0.7411135007241612</v>
+        <v>0.6198910283690822</v>
       </c>
       <c r="G14">
-        <v>0.0008002497698760824</v>
+        <v>0.04588091590484922</v>
       </c>
       <c r="H14">
-        <v>0.162474092238341</v>
+        <v>0.1624645275754517</v>
       </c>
       <c r="I14">
-        <v>0.001482789459319456</v>
+        <v>0.001953393007925186</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3168238991038699</v>
+        <v>0.2547159709290092</v>
       </c>
       <c r="L14">
-        <v>0.08876554950749238</v>
+        <v>0.1207247955896307</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0798014568730423</v>
       </c>
       <c r="N14">
-        <v>0.1917977658800751</v>
+        <v>0.09149071936478848</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.060464024055506</v>
+        <v>0.2000830669092011</v>
       </c>
       <c r="Q14">
-        <v>1.919961813050833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.155120438527348</v>
+      </c>
+      <c r="S14">
+        <v>1.530174253437309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.527431122048824</v>
+        <v>3.321907018921934</v>
       </c>
       <c r="C15">
-        <v>0.6555837408296554</v>
+        <v>0.660380077663973</v>
       </c>
       <c r="D15">
-        <v>0.05321732967877324</v>
+        <v>0.06350301980492645</v>
       </c>
       <c r="E15">
-        <v>0.04012052252863807</v>
+        <v>0.04102396014438003</v>
       </c>
       <c r="F15">
-        <v>0.7256378917841886</v>
+        <v>0.6127262310552481</v>
       </c>
       <c r="G15">
-        <v>0.0008006838254393397</v>
+        <v>0.03749839337771377</v>
       </c>
       <c r="H15">
-        <v>0.1749804803579735</v>
+        <v>0.1749536080301652</v>
       </c>
       <c r="I15">
-        <v>0.001562553456839311</v>
+        <v>0.002043270019685295</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.312258938824705</v>
+        <v>0.2536001717887331</v>
       </c>
       <c r="L15">
-        <v>0.09111915926866132</v>
+        <v>0.1206887863115949</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07874489743887381</v>
       </c>
       <c r="N15">
-        <v>0.1809499287179861</v>
+        <v>0.09409029661946988</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.068518025566974</v>
+        <v>0.1892929899092906</v>
       </c>
       <c r="Q15">
-        <v>1.881758869923573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.156073257144726</v>
+      </c>
+      <c r="S15">
+        <v>1.518501903100002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.311130692898701</v>
+        <v>3.168078113836543</v>
       </c>
       <c r="C16">
-        <v>0.6178460014284042</v>
+        <v>0.6438369410078906</v>
       </c>
       <c r="D16">
-        <v>0.05173988727518974</v>
+        <v>0.05872898930542902</v>
       </c>
       <c r="E16">
-        <v>0.03960516824448534</v>
+        <v>0.0410285568637283</v>
       </c>
       <c r="F16">
-        <v>0.7106176826641928</v>
+        <v>0.6283122577797826</v>
       </c>
       <c r="G16">
-        <v>0.0008027237428868433</v>
+        <v>0.009549043891643905</v>
       </c>
       <c r="H16">
-        <v>0.1622720815767167</v>
+        <v>0.1621155048205907</v>
       </c>
       <c r="I16">
-        <v>0.001584006408428706</v>
+        <v>0.001980714828079044</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3148458313473839</v>
+        <v>0.266611947746707</v>
       </c>
       <c r="L16">
-        <v>0.08781788644882482</v>
+        <v>0.1271491530909419</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08085796704449777</v>
       </c>
       <c r="N16">
-        <v>0.1738596008154829</v>
+        <v>0.09118179155989026</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.058512703214745</v>
+        <v>0.1840714505086254</v>
       </c>
       <c r="Q16">
-        <v>1.843665742970643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.109920523162771</v>
+      </c>
+      <c r="S16">
+        <v>1.580072948627844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.220917128267217</v>
+        <v>3.101426075120401</v>
       </c>
       <c r="C17">
-        <v>0.5900141187431132</v>
+        <v>0.6258678788751411</v>
       </c>
       <c r="D17">
-        <v>0.05373991458888838</v>
+        <v>0.05961777112814559</v>
       </c>
       <c r="E17">
-        <v>0.03920020969371163</v>
+        <v>0.04081858587448783</v>
       </c>
       <c r="F17">
-        <v>0.7280018597810738</v>
+        <v>0.6563073258105945</v>
       </c>
       <c r="G17">
-        <v>0.000803816456085777</v>
+        <v>0.003759712164697504</v>
       </c>
       <c r="H17">
-        <v>0.1245475467809882</v>
+        <v>0.1242939557444771</v>
       </c>
       <c r="I17">
-        <v>0.00167222674373857</v>
+        <v>0.001999264817071911</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3266659970535954</v>
+        <v>0.2810641738178106</v>
       </c>
       <c r="L17">
-        <v>0.08006022250430078</v>
+        <v>0.1336465240614526</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08464287999515108</v>
       </c>
       <c r="N17">
-        <v>0.1907796953656273</v>
+        <v>0.08321923442660761</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.033528749191419</v>
+        <v>0.202697066844479</v>
       </c>
       <c r="Q17">
-        <v>1.884927879124916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.068754681299694</v>
+      </c>
+      <c r="S17">
+        <v>1.656702943733734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.231189587247911</v>
+        <v>3.115358481057342</v>
       </c>
       <c r="C18">
-        <v>0.5663155570092613</v>
+        <v>0.6080193273427881</v>
       </c>
       <c r="D18">
-        <v>0.05916751552589261</v>
+        <v>0.06481651129858079</v>
       </c>
       <c r="E18">
-        <v>0.04026228213724292</v>
+        <v>0.0417682700129951</v>
       </c>
       <c r="F18">
-        <v>0.7772700001756263</v>
+        <v>0.7061685318664885</v>
       </c>
       <c r="G18">
-        <v>0.000804164226472002</v>
+        <v>0.002430893483346352</v>
       </c>
       <c r="H18">
-        <v>0.07173998089740508</v>
+        <v>0.07146114919831348</v>
       </c>
       <c r="I18">
-        <v>0.001466308855842868</v>
+        <v>0.001726561612868771</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3492031645398441</v>
+        <v>0.3017951067596023</v>
       </c>
       <c r="L18">
-        <v>0.07065801718953679</v>
+        <v>0.1421000971936035</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09154506074772328</v>
       </c>
       <c r="N18">
-        <v>0.2334114617382426</v>
+        <v>0.07306270828574313</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9935694286349133</v>
+        <v>0.2477380513967233</v>
       </c>
       <c r="Q18">
-        <v>2.004410588783117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.021670443354637</v>
+      </c>
+      <c r="S18">
+        <v>1.779565186638251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.314087051690194</v>
+        <v>3.19008406533834</v>
       </c>
       <c r="C19">
-        <v>0.5508668844640283</v>
+        <v>0.5968395991717443</v>
       </c>
       <c r="D19">
-        <v>0.06749302344531571</v>
+        <v>0.0733835986769833</v>
       </c>
       <c r="E19">
-        <v>0.04449280872221095</v>
+        <v>0.04564696762435538</v>
       </c>
       <c r="F19">
-        <v>0.8474624156017256</v>
+        <v>0.7710817076944778</v>
       </c>
       <c r="G19">
-        <v>0.0008038684575466089</v>
+        <v>0.002044965257915088</v>
       </c>
       <c r="H19">
-        <v>0.02643658524150538</v>
+        <v>0.02622185713474323</v>
       </c>
       <c r="I19">
-        <v>0.001564757078528878</v>
+        <v>0.001883992512079935</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3781303669754017</v>
+        <v>0.3262252135217665</v>
       </c>
       <c r="L19">
-        <v>0.06527419016352631</v>
+        <v>0.1514983017869653</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1005345242539093</v>
       </c>
       <c r="N19">
-        <v>0.2998484964601715</v>
+        <v>0.06645154714598078</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9503023968391631</v>
+        <v>0.3173498717130769</v>
       </c>
       <c r="Q19">
-        <v>2.172990076732106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.976394456517113</v>
+      </c>
+      <c r="S19">
+        <v>1.933118956703595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.612397821634659</v>
+        <v>3.448232944699043</v>
       </c>
       <c r="C20">
-        <v>0.5533750334247998</v>
+        <v>0.6002509925754111</v>
       </c>
       <c r="D20">
-        <v>0.08350323650287805</v>
+        <v>0.09121491815650984</v>
       </c>
       <c r="E20">
-        <v>0.05711161901197315</v>
+        <v>0.05756030611093976</v>
       </c>
       <c r="F20">
-        <v>0.9795043595814548</v>
+        <v>0.8801689399859498</v>
       </c>
       <c r="G20">
-        <v>0.0008017626331238887</v>
+        <v>0.003483250898389301</v>
       </c>
       <c r="H20">
-        <v>0.0001200374195065024</v>
+        <v>0.0001524454970089906</v>
       </c>
       <c r="I20">
-        <v>0.001616566376561046</v>
+        <v>0.002115116141980344</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4270838226572593</v>
+        <v>0.3619831330990095</v>
       </c>
       <c r="L20">
-        <v>0.070075797389622</v>
+        <v>0.1629971653899105</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1166321504529897</v>
       </c>
       <c r="N20">
-        <v>0.4294181839283766</v>
+        <v>0.06870174078348867</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8916093096203355</v>
+        <v>0.4518057865789018</v>
       </c>
       <c r="Q20">
-        <v>2.490191755970443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.9262861957827226</v>
+      </c>
+      <c r="S20">
+        <v>2.180312984900638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.074018642836108</v>
+        <v>3.770711587037624</v>
       </c>
       <c r="C21">
-        <v>0.6151195918120607</v>
+        <v>0.6224386155926709</v>
       </c>
       <c r="D21">
-        <v>0.09182285352955688</v>
+        <v>0.1097081794673045</v>
       </c>
       <c r="E21">
-        <v>0.06133657258415859</v>
+        <v>0.06286070250056319</v>
       </c>
       <c r="F21">
-        <v>1.052677529280743</v>
+        <v>0.8703608173535997</v>
       </c>
       <c r="G21">
-        <v>0.0007977985221365684</v>
+        <v>0.06478329091641655</v>
       </c>
       <c r="H21">
-        <v>0.0002658004191522512</v>
+        <v>0.0003738766824907813</v>
       </c>
       <c r="I21">
-        <v>0.002074881324258371</v>
+        <v>0.002627839918707409</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4402851801667751</v>
+        <v>0.3412465387666863</v>
       </c>
       <c r="L21">
-        <v>0.07395769918645101</v>
+        <v>0.1498466209315623</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1164060020013409</v>
       </c>
       <c r="N21">
-        <v>0.4878658793833068</v>
+        <v>0.07110349409214844</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8808579866370749</v>
+        <v>0.5051910071974532</v>
       </c>
       <c r="Q21">
-        <v>2.668809828310316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9726902185507242</v>
+      </c>
+      <c r="S21">
+        <v>2.094249501530498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.372387902637172</v>
+        <v>3.969739039478782</v>
       </c>
       <c r="C22">
-        <v>0.6546093480479556</v>
+        <v>0.6331743994750809</v>
       </c>
       <c r="D22">
-        <v>0.09649034722185235</v>
+        <v>0.1222492897113483</v>
       </c>
       <c r="E22">
-        <v>0.06342766460121574</v>
+        <v>0.06597412519132284</v>
       </c>
       <c r="F22">
-        <v>1.097899557282375</v>
+        <v>0.8571055672373546</v>
       </c>
       <c r="G22">
-        <v>0.0007952941630593675</v>
+        <v>0.1538870190447099</v>
       </c>
       <c r="H22">
-        <v>0.000733858726589709</v>
+        <v>0.0007572163509550478</v>
       </c>
       <c r="I22">
-        <v>0.002367759125975866</v>
+        <v>0.002745192067567181</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4484206707040173</v>
+        <v>0.3259697298307813</v>
       </c>
       <c r="L22">
-        <v>0.0760336271149562</v>
+        <v>0.1412398490320932</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1154109966580918</v>
       </c>
       <c r="N22">
-        <v>0.5194935980175046</v>
+        <v>0.07236518059841934</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8756615262712586</v>
+        <v>0.5326042738853687</v>
       </c>
       <c r="Q22">
-        <v>2.781205989909722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.010422775068832</v>
+      </c>
+      <c r="S22">
+        <v>2.021629463642398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217756429641724</v>
+        <v>3.880577833060045</v>
       </c>
       <c r="C23">
-        <v>0.6317440881259984</v>
+        <v>0.6307728843899554</v>
       </c>
       <c r="D23">
-        <v>0.09391197636693249</v>
+        <v>0.1141749049109393</v>
       </c>
       <c r="E23">
-        <v>0.06236907563856597</v>
+        <v>0.06411605375681972</v>
       </c>
       <c r="F23">
-        <v>1.075782584324401</v>
+        <v>0.8741353098158271</v>
       </c>
       <c r="G23">
-        <v>0.0007966102769041195</v>
+        <v>0.08799746524771024</v>
       </c>
       <c r="H23">
-        <v>0.0004587061587786323</v>
+        <v>0.0005470599141563781</v>
       </c>
       <c r="I23">
-        <v>0.001890401488148008</v>
+        <v>0.002324530915998047</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4454256248365738</v>
+        <v>0.3383541217076349</v>
       </c>
       <c r="L23">
-        <v>0.07501051227396083</v>
+        <v>0.1471861446941709</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1177450407421574</v>
       </c>
       <c r="N23">
-        <v>0.5019700026924738</v>
+        <v>0.07179511691321494</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8769516141955265</v>
+        <v>0.5182581013393417</v>
       </c>
       <c r="Q23">
-        <v>2.727311686207855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9830143666902842</v>
+      </c>
+      <c r="S23">
+        <v>2.091536956726799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.624466876771351</v>
+        <v>3.460106043597705</v>
       </c>
       <c r="C24">
-        <v>0.548451797447143</v>
+        <v>0.5958005054066007</v>
       </c>
       <c r="D24">
-        <v>0.08434365620416884</v>
+        <v>0.09202145967670106</v>
       </c>
       <c r="E24">
-        <v>0.05826754145268964</v>
+        <v>0.05865822143798205</v>
       </c>
       <c r="F24">
-        <v>0.9904028204159232</v>
+        <v>0.890752939376398</v>
       </c>
       <c r="G24">
-        <v>0.0008017287466731371</v>
+        <v>0.003286974225606087</v>
       </c>
       <c r="H24">
-        <v>3.935251480235991E-07</v>
+        <v>4.329290101212635E-05</v>
       </c>
       <c r="I24">
-        <v>0.001132143988582079</v>
+        <v>0.001538508404532735</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4326826535641999</v>
+        <v>0.366996228393905</v>
       </c>
       <c r="L24">
-        <v>0.07097493532736898</v>
+        <v>0.164929334164448</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1184651145937643</v>
       </c>
       <c r="N24">
-        <v>0.4368906061258713</v>
+        <v>0.06941200858535979</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8857133860134994</v>
+        <v>0.459669673625541</v>
       </c>
       <c r="Q24">
-        <v>2.518223844433749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9192901401481777</v>
+      </c>
+      <c r="S24">
+        <v>2.207505333685504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.984000555665716</v>
+        <v>2.865567178925289</v>
       </c>
       <c r="C25">
-        <v>0.4592471430348724</v>
+        <v>0.4999295937345209</v>
       </c>
       <c r="D25">
-        <v>0.07412869714718795</v>
+        <v>0.0811063641159393</v>
       </c>
       <c r="E25">
-        <v>0.05383317369443574</v>
+        <v>0.05516616969602239</v>
       </c>
       <c r="F25">
-        <v>0.9018423517737943</v>
+        <v>0.8185865295503376</v>
       </c>
       <c r="G25">
-        <v>0.0008074922489948172</v>
+        <v>0.003908767000911695</v>
       </c>
       <c r="H25">
-        <v>0.0006468913438424373</v>
+        <v>0.0002179935091586316</v>
       </c>
       <c r="I25">
-        <v>0.001476102218657793</v>
+        <v>0.001331461193913697</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4206538937351674</v>
+        <v>0.3624126873088152</v>
       </c>
       <c r="L25">
-        <v>0.06655069417096993</v>
+        <v>0.1722466353753447</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1061463918147858</v>
       </c>
       <c r="N25">
-        <v>0.3671210095126298</v>
+        <v>0.06619605899624847</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8982023336770482</v>
+        <v>0.3866755086882989</v>
       </c>
       <c r="Q25">
-        <v>2.303138886339099</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9075464053754416</v>
+      </c>
+      <c r="S25">
+        <v>2.040365761226752</v>
       </c>
     </row>
   </sheetData>
